--- a/key Paper v2 scales aligned.xlsx
+++ b/key Paper v2 scales aligned.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AG$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AG$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>C</t>
   </si>
@@ -141,12 +141,6 @@
     <t>Chord</t>
   </si>
   <si>
-    <t>Unsigned Int</t>
-  </si>
-  <si>
-    <t>Unsigned Long</t>
-  </si>
-  <si>
     <t>Const</t>
   </si>
   <si>
@@ -169,6 +163,48 @@
   </si>
   <si>
     <t>n value</t>
+  </si>
+  <si>
+    <t>Play Control</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>HH1</t>
+  </si>
+  <si>
+    <t>HHS</t>
+  </si>
+  <si>
+    <t>SNR1</t>
+  </si>
+  <si>
+    <t>SNRS</t>
+  </si>
+  <si>
+    <t>Kick1</t>
+  </si>
+  <si>
+    <t>KickS</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Synth</t>
+  </si>
+  <si>
+    <t>Ticknote</t>
+  </si>
+  <si>
+    <t>LightNote</t>
   </si>
 </sst>
 </file>
@@ -253,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -681,61 +717,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -823,9 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,15 +830,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -868,24 +843,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1194,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY45"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="13.5" customHeight="1"/>
@@ -1213,19 +1170,13 @@
     <col min="22" max="22" width="4.7109375" style="31" customWidth="1"/>
     <col min="23" max="24" width="2.5703125" style="30"/>
     <col min="25" max="25" width="8.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="26" max="34" width="2.5703125" style="30"/>
-    <col min="35" max="35" width="3" style="30" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="2.5703125" style="30"/>
-    <col min="38" max="38" width="16.85546875" style="30" customWidth="1"/>
-    <col min="39" max="40" width="2.5703125" style="30"/>
-    <col min="41" max="41" width="8.5703125" style="30" customWidth="1"/>
-    <col min="42" max="44" width="2.5703125" style="30"/>
-    <col min="45" max="45" width="8.28515625" style="30" customWidth="1"/>
-    <col min="46" max="77" width="2.85546875" style="30" customWidth="1"/>
-    <col min="78" max="16384" width="2.5703125" style="30"/>
+    <col min="26" max="26" width="2.5703125" style="30"/>
+    <col min="27" max="27" width="17.85546875" style="30" customWidth="1"/>
+    <col min="28" max="28" width="3" style="31" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="2.5703125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="13.5" customHeight="1">
+    <row r="1" spans="1:33" ht="13.5" customHeight="1">
       <c r="A1" s="32"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1253,14 +1204,14 @@
       <c r="Y1" s="33"/>
       <c r="Z1" s="33"/>
       <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
+      <c r="AB1" s="34"/>
       <c r="AC1" s="33"/>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
       <c r="AF1" s="33"/>
       <c r="AG1" s="35"/>
     </row>
-    <row r="2" spans="1:45" ht="13.5" customHeight="1">
+    <row r="2" spans="1:33" ht="13.5" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1288,14 +1239,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="26"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="37"/>
     </row>
-    <row r="3" spans="1:45" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:33" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="38"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1323,24 +1274,14 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
+      <c r="AB3" s="47"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="39"/>
-      <c r="AI3" s="30">
-        <v>10</v>
-      </c>
-      <c r="AL3" s="30" t="str">
-        <f>DEC2BIN(AI3)</f>
-        <v>1010</v>
-      </c>
-      <c r="AS3" s="30">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:45" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:33" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -1391,7 +1332,7 @@
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S4" s="26"/>
       <c r="T4" s="27" t="s">
@@ -1410,12 +1351,8 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="24"/>
       <c r="AG4" s="40"/>
-      <c r="AS4" s="30">
-        <f>AS3*2</f>
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:45" ht="13.5" customHeight="1">
+    <row r="5" spans="1:33" ht="13.5" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13"/>
@@ -1443,18 +1380,14 @@
       <c r="Y5" s="23"/>
       <c r="Z5" s="23"/>
       <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
+      <c r="AB5" s="24"/>
       <c r="AC5" s="23"/>
       <c r="AD5" s="23"/>
       <c r="AE5" s="23"/>
       <c r="AF5" s="23"/>
       <c r="AG5" s="40"/>
-      <c r="AS5" s="30">
-        <f t="shared" ref="AS5:AS17" si="0">AS4*2</f>
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:45" ht="13.5" customHeight="1">
+    <row r="6" spans="1:33" ht="13.5" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14"/>
@@ -1482,69 +1415,65 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
+      <c r="AB6" s="24"/>
       <c r="AC6" s="23"/>
       <c r="AD6" s="23"/>
       <c r="AE6" s="23"/>
       <c r="AF6" s="23"/>
       <c r="AG6" s="40"/>
-      <c r="AS6" s="30">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
     </row>
-    <row r="7" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A7" s="66">
+    <row r="7" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A7" s="58">
         <v>15</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="59">
         <v>14</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="58">
         <v>13</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="59">
         <v>12</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="58">
         <v>11</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="59">
         <v>10</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <v>9</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="59">
         <v>8</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="58">
         <v>7</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="59">
         <v>6</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="58">
         <v>5</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="59">
         <v>4</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="58">
         <v>3</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="59">
         <v>2</v>
       </c>
-      <c r="O7" s="66">
-        <v>1</v>
-      </c>
-      <c r="P7" s="67">
+      <c r="O7" s="58">
+        <v>1</v>
+      </c>
+      <c r="P7" s="59">
         <v>0</v>
       </c>
       <c r="Q7" s="26"/>
       <c r="R7" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S7" s="26"/>
       <c r="T7" s="27"/>
@@ -1555,95 +1484,91 @@
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AB7" s="24"/>
       <c r="AC7" s="23"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="23"/>
       <c r="AF7" s="23"/>
       <c r="AG7" s="40"/>
-      <c r="AS7" s="30">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
     </row>
-    <row r="8" spans="1:45" ht="13.5" customHeight="1">
-      <c r="A8" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="51" t="s">
+    <row r="8" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A8" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="51" t="s">
+      <c r="M8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="P8" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53" t="s">
+      <c r="Q8" s="51"/>
+      <c r="R8" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55" t="s">
+      <c r="S8" s="53"/>
+      <c r="T8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="57" t="s">
+      <c r="U8" s="55"/>
+      <c r="V8" s="56" t="s">
         <v>35</v>
       </c>
       <c r="W8" s="25"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="AA8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="AC8" s="25"/>
       <c r="AD8" s="25"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="40"/>
-      <c r="AS8" s="30">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
     </row>
-    <row r="9" spans="1:45" ht="13.5" customHeight="1">
+    <row r="9" spans="1:33" ht="13.5" customHeight="1">
       <c r="A9" s="42">
         <v>1</v>
       </c>
@@ -1697,11 +1622,11 @@
         <v>38</v>
       </c>
       <c r="S9" s="28">
-        <f t="shared" ref="S9:S25" si="1">SUM(A9:P9)</f>
+        <f t="shared" ref="S9:S25" si="0">SUM(A9:P9)</f>
         <v>1</v>
       </c>
       <c r="T9" s="26" t="str">
-        <f t="shared" ref="T9:T25" si="2">DEC2HEX(P9+(O9*2)+(N9*4)+(M9*8)+(L9*16)+(K9*32)+(J9*64)+(I9*128)+(H9*256)+(G9*512)+(F9*1024)+(E9*2048)+(D9*4096)+(C9*8192)+(B9*16384)+(A9*32768))</f>
+        <f t="shared" ref="T9:T25" si="1">DEC2HEX(P9+(O9*2)+(N9*4)+(M9*8)+(L9*16)+(K9*32)+(J9*64)+(I9*128)+(H9*256)+(G9*512)+(F9*1024)+(E9*2048)+(D9*4096)+(C9*8192)+(B9*16384)+(A9*32768))</f>
         <v>8000</v>
       </c>
       <c r="U9" s="22"/>
@@ -1711,31 +1636,23 @@
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22" t="str">
-        <f t="shared" ref="Y9:Y25" si="3">"0x"&amp;T9&amp;"U"</f>
+        <f t="shared" ref="Y9:Y25" si="2">"0x"&amp;T9&amp;"U"</f>
         <v>0x8000U</v>
       </c>
       <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
+      <c r="AA9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="48">
+        <v>0</v>
+      </c>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="41"/>
-      <c r="AL9" s="30">
-        <f t="shared" ref="AL9:AL26" si="4">P9+(O9*2)+(N9*4)+(M9*8)+(L9*16)+(K9*32)+(J9*64)+(I9*128)+(H9*256)+(G9*512)+(F9*1024)+(E9*2048)+(D9*4096)+(C9*8192)+(B9*16384)+(A9*32768)</f>
-        <v>32768</v>
-      </c>
-      <c r="AO9" s="30" t="str">
-        <f>"0x"&amp;DEC2HEX(AL9)</f>
-        <v>0x8000</v>
-      </c>
-      <c r="AS9" s="30">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
     </row>
-    <row r="10" spans="1:45" ht="13.5" customHeight="1">
+    <row r="10" spans="1:33" ht="13.5" customHeight="1">
       <c r="A10" s="42">
         <v>1</v>
       </c>
@@ -1789,11 +1706,11 @@
         <v>17</v>
       </c>
       <c r="S10" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T10" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T10" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8500</v>
       </c>
       <c r="U10" s="1"/>
@@ -1803,31 +1720,23 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8500U</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>1</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="37"/>
-      <c r="AL10" s="30">
-        <f t="shared" si="4"/>
-        <v>34048</v>
-      </c>
-      <c r="AO10" s="30" t="str">
-        <f t="shared" ref="AO10:AO26" si="5">"0x"&amp;DEC2HEX(AL10)</f>
-        <v>0x8500</v>
-      </c>
-      <c r="AS10" s="30">
-        <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
     </row>
-    <row r="11" spans="1:45" ht="13.5" customHeight="1">
+    <row r="11" spans="1:33" ht="13.5" customHeight="1">
       <c r="A11" s="42">
         <v>1</v>
       </c>
@@ -1881,11 +1790,11 @@
         <v>19</v>
       </c>
       <c r="S11" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T11" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T11" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8520</v>
       </c>
       <c r="U11" s="1"/>
@@ -1895,31 +1804,23 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8520U</v>
       </c>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AA11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB11" s="48">
+        <v>2</v>
+      </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="37"/>
-      <c r="AL11" s="30">
-        <f t="shared" si="4"/>
-        <v>34080</v>
-      </c>
-      <c r="AO11" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8520</v>
-      </c>
-      <c r="AS11" s="30">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
     </row>
-    <row r="12" spans="1:45" ht="13.5" customHeight="1">
+    <row r="12" spans="1:33" ht="13.5" customHeight="1">
       <c r="A12" s="42">
         <v>1</v>
       </c>
@@ -1973,11 +1874,11 @@
         <v>15</v>
       </c>
       <c r="S12" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T12" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8880</v>
       </c>
       <c r="U12" s="1"/>
@@ -1987,31 +1888,23 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8880U</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>3</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="37"/>
-      <c r="AL12" s="30">
-        <f t="shared" si="4"/>
-        <v>34944</v>
-      </c>
-      <c r="AO12" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8880</v>
-      </c>
-      <c r="AS12" s="30">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
     </row>
-    <row r="13" spans="1:45" ht="13.5" customHeight="1">
+    <row r="13" spans="1:33" ht="13.5" customHeight="1">
       <c r="A13" s="42">
         <v>1</v>
       </c>
@@ -2065,11 +1958,11 @@
         <v>12</v>
       </c>
       <c r="S13" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T13" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8900</v>
       </c>
       <c r="U13" s="1"/>
@@ -2079,31 +1972,23 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8900U</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB13" s="48">
+        <v>4</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="37"/>
-      <c r="AL13" s="30">
-        <f t="shared" si="4"/>
-        <v>35072</v>
-      </c>
-      <c r="AO13" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8900</v>
-      </c>
-      <c r="AS13" s="30">
-        <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
     </row>
-    <row r="14" spans="1:45" ht="13.5" customHeight="1">
+    <row r="14" spans="1:33" ht="13.5" customHeight="1">
       <c r="A14" s="42">
         <v>1</v>
       </c>
@@ -2140,7 +2025,7 @@
       <c r="L14" s="26">
         <v>0</v>
       </c>
-      <c r="M14" s="65">
+      <c r="M14" s="57">
         <v>1</v>
       </c>
       <c r="N14" s="42">
@@ -2157,11 +2042,11 @@
         <v>23</v>
       </c>
       <c r="S14" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T14" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8908</v>
       </c>
       <c r="U14" s="1"/>
@@ -2171,31 +2056,23 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8908U</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>5</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="37"/>
-      <c r="AL14" s="30">
-        <f t="shared" si="4"/>
-        <v>35080</v>
-      </c>
-      <c r="AO14" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8908</v>
-      </c>
-      <c r="AS14" s="30">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
     </row>
-    <row r="15" spans="1:45" ht="13.5" customHeight="1">
+    <row r="15" spans="1:33" ht="13.5" customHeight="1">
       <c r="A15" s="42">
         <v>1</v>
       </c>
@@ -2249,11 +2126,11 @@
         <v>22</v>
       </c>
       <c r="S15" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T15" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8910</v>
       </c>
       <c r="U15" s="1"/>
@@ -2263,31 +2140,23 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8910U</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" s="48">
+        <v>6</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="37"/>
-      <c r="AL15" s="30">
-        <f t="shared" si="4"/>
-        <v>35088</v>
-      </c>
-      <c r="AO15" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8910</v>
-      </c>
-      <c r="AS15" s="30">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
     </row>
-    <row r="16" spans="1:45" ht="13.5" customHeight="1">
+    <row r="16" spans="1:33" ht="13.5" customHeight="1">
       <c r="A16" s="42">
         <v>1</v>
       </c>
@@ -2341,11 +2210,11 @@
         <v>21</v>
       </c>
       <c r="S16" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T16" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8920</v>
       </c>
       <c r="U16" s="1"/>
@@ -2355,31 +2224,23 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8920U</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>7</v>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="37"/>
-      <c r="AL16" s="30">
-        <f t="shared" si="4"/>
-        <v>35104</v>
-      </c>
-      <c r="AO16" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8920</v>
-      </c>
-      <c r="AS16" s="30">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
     </row>
-    <row r="17" spans="1:77" ht="13.5" customHeight="1">
+    <row r="17" spans="1:34" ht="13.5" customHeight="1">
       <c r="A17" s="42">
         <v>1</v>
       </c>
@@ -2433,11 +2294,11 @@
         <v>20</v>
       </c>
       <c r="S17" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T17" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>8940</v>
       </c>
       <c r="U17" s="1"/>
@@ -2447,65 +2308,23 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x8940U</v>
       </c>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="AA17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" s="48">
+        <v>8</v>
+      </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="37"/>
-      <c r="AL17" s="30">
-        <f t="shared" si="4"/>
-        <v>35136</v>
-      </c>
-      <c r="AO17" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x8940</v>
-      </c>
-      <c r="AS17" s="30">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="59"/>
-      <c r="AV17" s="59"/>
-      <c r="AW17" s="59"/>
-      <c r="AX17" s="59"/>
-      <c r="AY17" s="59"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="60"/>
-      <c r="BJ17" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-      <c r="BM17" s="71"/>
-      <c r="BN17" s="71"/>
-      <c r="BO17" s="71"/>
-      <c r="BP17" s="71"/>
-      <c r="BQ17" s="71"/>
-      <c r="BR17" s="71"/>
-      <c r="BS17" s="71"/>
-      <c r="BT17" s="71"/>
-      <c r="BU17" s="71"/>
-      <c r="BV17" s="71"/>
-      <c r="BW17" s="71"/>
-      <c r="BX17" s="71"/>
-      <c r="BY17" s="72"/>
     </row>
-    <row r="18" spans="1:77" ht="13.5" customHeight="1">
+    <row r="18" spans="1:34" ht="13.5" customHeight="1">
       <c r="A18" s="42">
         <v>1</v>
       </c>
@@ -2559,11 +2378,11 @@
         <v>13</v>
       </c>
       <c r="S18" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T18" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>9100</v>
       </c>
       <c r="U18" s="1"/>
@@ -2573,65 +2392,23 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x9100U</v>
       </c>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="AA18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>9</v>
+      </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="37"/>
-      <c r="AL18" s="30">
-        <f t="shared" si="4"/>
-        <v>37120</v>
-      </c>
-      <c r="AO18" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x9100</v>
-      </c>
-      <c r="AS18" s="30">
-        <f>AS17*2</f>
-        <v>131072</v>
-      </c>
-      <c r="AT18" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU18" s="74"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="74"/>
-      <c r="AX18" s="74"/>
-      <c r="AY18" s="74"/>
-      <c r="AZ18" s="74"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="74"/>
-      <c r="BC18" s="74"/>
-      <c r="BD18" s="74"/>
-      <c r="BE18" s="74"/>
-      <c r="BF18" s="74"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="74"/>
-      <c r="BM18" s="74"/>
-      <c r="BN18" s="74"/>
-      <c r="BO18" s="74"/>
-      <c r="BP18" s="74"/>
-      <c r="BQ18" s="74"/>
-      <c r="BR18" s="74"/>
-      <c r="BS18" s="74"/>
-      <c r="BT18" s="74"/>
-      <c r="BU18" s="74"/>
-      <c r="BV18" s="74"/>
-      <c r="BW18" s="74"/>
-      <c r="BX18" s="74"/>
-      <c r="BY18" s="75"/>
     </row>
-    <row r="19" spans="1:77" ht="13.5" customHeight="1">
+    <row r="19" spans="1:34" ht="13.5" customHeight="1">
       <c r="A19" s="42">
         <v>1</v>
       </c>
@@ -2685,11 +2462,11 @@
         <v>25</v>
       </c>
       <c r="S19" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T19" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>9120</v>
       </c>
       <c r="U19" s="1"/>
@@ -2699,35 +2476,23 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x9120U</v>
       </c>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="48">
+        <v>10</v>
+      </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="37"/>
-      <c r="AL19" s="30">
-        <f t="shared" si="4"/>
-        <v>37152</v>
-      </c>
-      <c r="AO19" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x9120</v>
-      </c>
-      <c r="AS19" s="30">
-        <f>AS18*2</f>
-        <v>262144</v>
-      </c>
-      <c r="AT19" s="61"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="61"/>
-      <c r="BY19" s="62"/>
     </row>
-    <row r="20" spans="1:77" ht="13.5" customHeight="1">
+    <row r="20" spans="1:34" ht="13.5" customHeight="1">
       <c r="A20" s="42">
         <v>1</v>
       </c>
@@ -2781,11 +2546,11 @@
         <v>24</v>
       </c>
       <c r="S20" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T20" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>9140</v>
       </c>
       <c r="U20" s="1"/>
@@ -2795,35 +2560,23 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x9140U</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+      <c r="AA20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>11</v>
+      </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="37"/>
-      <c r="AL20" s="30">
-        <f t="shared" si="4"/>
-        <v>37184</v>
-      </c>
-      <c r="AO20" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x9140</v>
-      </c>
-      <c r="AS20" s="30">
-        <f>AS19*2</f>
-        <v>524288</v>
-      </c>
-      <c r="AT20" s="61"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="61"/>
-      <c r="BY20" s="62"/>
     </row>
-    <row r="21" spans="1:77" ht="13.5" customHeight="1">
+    <row r="21" spans="1:34" ht="13.5" customHeight="1">
       <c r="A21" s="42">
         <v>1</v>
       </c>
@@ -2877,11 +2630,11 @@
         <v>14</v>
       </c>
       <c r="S21" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T21" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>9200</v>
       </c>
       <c r="U21" s="1"/>
@@ -2891,35 +2644,21 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x9200U</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="48">
+        <v>12</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="37"/>
-      <c r="AL21" s="30">
-        <f t="shared" si="4"/>
-        <v>37376</v>
-      </c>
-      <c r="AO21" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x9200</v>
-      </c>
-      <c r="AS21" s="30">
-        <f>AS20*2</f>
-        <v>1048576</v>
-      </c>
-      <c r="AT21" s="61"/>
-      <c r="BI21" s="62"/>
-      <c r="BJ21" s="61"/>
-      <c r="BY21" s="62"/>
     </row>
-    <row r="22" spans="1:77" ht="13.5" customHeight="1">
+    <row r="22" spans="1:34" ht="13.5" customHeight="1">
       <c r="A22" s="42">
         <v>1</v>
       </c>
@@ -2970,14 +2709,14 @@
       </c>
       <c r="Q22" s="26"/>
       <c r="R22" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S22" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T22" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T22" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>9970</v>
       </c>
       <c r="U22" s="1"/>
@@ -2987,123 +2726,21 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0x9970U</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
+      <c r="AB22" s="26">
+        <v>13</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="37"/>
-      <c r="AL22" s="30">
-        <f t="shared" si="4"/>
-        <v>39280</v>
-      </c>
-      <c r="AO22" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0x9970</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>31</v>
-      </c>
-      <c r="AU22" s="1">
-        <v>30</v>
-      </c>
-      <c r="AV22" s="1">
-        <v>29</v>
-      </c>
-      <c r="AW22" s="1">
-        <v>28</v>
-      </c>
-      <c r="AX22" s="1">
-        <v>27</v>
-      </c>
-      <c r="AY22" s="1">
-        <v>26</v>
-      </c>
-      <c r="AZ22" s="1">
-        <v>25</v>
-      </c>
-      <c r="BA22" s="1">
-        <v>24</v>
-      </c>
-      <c r="BB22" s="1">
-        <v>23</v>
-      </c>
-      <c r="BC22" s="1">
-        <v>22</v>
-      </c>
-      <c r="BD22" s="1">
-        <v>21</v>
-      </c>
-      <c r="BE22" s="1">
-        <v>20</v>
-      </c>
-      <c r="BF22" s="1">
-        <v>19</v>
-      </c>
-      <c r="BG22" s="1">
-        <v>18</v>
-      </c>
-      <c r="BH22" s="1">
-        <v>17</v>
-      </c>
-      <c r="BI22" s="1">
-        <v>16</v>
-      </c>
-      <c r="BJ22" s="1">
-        <v>15</v>
-      </c>
-      <c r="BK22" s="1">
-        <v>14</v>
-      </c>
-      <c r="BL22" s="1">
-        <v>13</v>
-      </c>
-      <c r="BM22" s="1">
-        <v>12</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>11</v>
-      </c>
-      <c r="BO22" s="1">
-        <v>10</v>
-      </c>
-      <c r="BP22" s="1">
-        <v>9</v>
-      </c>
-      <c r="BQ22" s="1">
-        <v>8</v>
-      </c>
-      <c r="BR22" s="1">
-        <v>7</v>
-      </c>
-      <c r="BS22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BT22" s="1">
-        <v>5</v>
-      </c>
-      <c r="BU22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BV22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BW22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY22" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:77" ht="13.5" customHeight="1">
+    <row r="23" spans="1:34" ht="13.5" customHeight="1">
       <c r="A23" s="42">
         <v>1</v>
       </c>
@@ -3157,11 +2794,11 @@
         <v>16</v>
       </c>
       <c r="S23" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T23" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T23" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>A100</v>
       </c>
       <c r="U23" s="1"/>
@@ -3171,123 +2808,21 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0xA100U</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
+      <c r="AB23" s="48">
+        <v>14</v>
+      </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="37"/>
-      <c r="AL23" s="30">
-        <f t="shared" si="4"/>
-        <v>41216</v>
-      </c>
-      <c r="AO23" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0xA100</v>
-      </c>
-      <c r="AT23" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW23" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX23" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ23" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="BA23" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB23" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC23" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD23" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE23" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF23" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI23" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ23" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL23" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM23" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN23" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO23" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP23" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ23" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="BR23" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="BS23" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT23" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="BU23" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="BV23" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW23" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX23" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY23" s="49" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="24" spans="1:77" ht="13.5" customHeight="1">
+    <row r="24" spans="1:34" ht="13.5" customHeight="1">
       <c r="A24" s="42">
         <v>1</v>
       </c>
@@ -3341,11 +2876,11 @@
         <v>18</v>
       </c>
       <c r="S24" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T24" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T24" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>A120</v>
       </c>
       <c r="U24" s="1"/>
@@ -3355,59 +2890,21 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0xA120U</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+      <c r="AB24" s="26">
+        <v>15</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="37"/>
-      <c r="AL24" s="30">
-        <f t="shared" si="4"/>
-        <v>41248</v>
-      </c>
-      <c r="AO24" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0xA120</v>
-      </c>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="19"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="63"/>
-      <c r="BJ24" s="16"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="16"/>
-      <c r="BP24" s="10"/>
-      <c r="BQ24" s="13"/>
-      <c r="BR24" s="10"/>
-      <c r="BS24" s="13"/>
-      <c r="BT24" s="10"/>
-      <c r="BU24" s="19"/>
-      <c r="BV24" s="5"/>
-      <c r="BW24" s="10"/>
-      <c r="BX24" s="13"/>
-      <c r="BY24" s="63"/>
     </row>
-    <row r="25" spans="1:77" ht="13.5" customHeight="1">
+    <row r="25" spans="1:34" ht="13.5" customHeight="1">
       <c r="A25" s="42">
         <v>1</v>
       </c>
@@ -3461,11 +2958,11 @@
         <v>26</v>
       </c>
       <c r="S25" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T25" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T25" s="26" t="str">
-        <f t="shared" si="2"/>
         <v>B128</v>
       </c>
       <c r="U25" s="1"/>
@@ -3475,105 +2972,65 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0xB128U</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
+      <c r="AB25" s="26"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="37"/>
-      <c r="AL25" s="30">
-        <f t="shared" si="4"/>
-        <v>45352</v>
-      </c>
-      <c r="AO25" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0xB128</v>
-      </c>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="10"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="13"/>
-      <c r="BI25" s="63"/>
-      <c r="BJ25" s="16"/>
-      <c r="BK25" s="10"/>
-      <c r="BL25" s="13"/>
-      <c r="BM25" s="10"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="16"/>
-      <c r="BP25" s="10"/>
-      <c r="BQ25" s="13"/>
-      <c r="BR25" s="10"/>
-      <c r="BS25" s="13"/>
-      <c r="BT25" s="10"/>
-      <c r="BU25" s="19"/>
-      <c r="BV25" s="5"/>
-      <c r="BW25" s="10"/>
-      <c r="BX25" s="13"/>
-      <c r="BY25" s="63"/>
     </row>
-    <row r="26" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A26" s="66">
+    <row r="26" spans="1:34" ht="13.5" customHeight="1">
+      <c r="A26" s="58">
         <v>15</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="59">
         <v>14</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="58">
         <v>13</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="59">
         <v>12</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="58">
         <v>11</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="59">
         <v>10</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="58">
         <v>9</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="59">
         <v>8</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="58">
         <v>7</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="59">
         <v>6</v>
       </c>
-      <c r="K26" s="66">
+      <c r="K26" s="58">
         <v>5</v>
       </c>
-      <c r="L26" s="67">
+      <c r="L26" s="59">
         <v>4</v>
       </c>
-      <c r="M26" s="66">
+      <c r="M26" s="58">
         <v>3</v>
       </c>
-      <c r="N26" s="67">
+      <c r="N26" s="59">
         <v>2</v>
       </c>
-      <c r="O26" s="66">
-        <v>1</v>
-      </c>
-      <c r="P26" s="67">
+      <c r="O26" s="58">
+        <v>1</v>
+      </c>
+      <c r="P26" s="59">
         <v>0</v>
       </c>
       <c r="W26" s="1"/>
@@ -3581,149 +3038,14 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AB26" s="26"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="37"/>
-      <c r="AL26" s="30">
-        <f t="shared" si="4"/>
-        <v>917506</v>
-      </c>
-      <c r="AO26" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>0xE0002</v>
-      </c>
-      <c r="AT26" s="61">
-        <f t="shared" ref="AT26:BW26" si="6">AU26*2</f>
-        <v>2147483648</v>
-      </c>
-      <c r="AU26" s="30">
-        <f t="shared" si="6"/>
-        <v>1073741824</v>
-      </c>
-      <c r="AV26" s="30">
-        <f t="shared" si="6"/>
-        <v>536870912</v>
-      </c>
-      <c r="AW26" s="30">
-        <f t="shared" si="6"/>
-        <v>268435456</v>
-      </c>
-      <c r="AX26" s="30">
-        <f t="shared" si="6"/>
-        <v>134217728</v>
-      </c>
-      <c r="AY26" s="30">
-        <f t="shared" si="6"/>
-        <v>67108864</v>
-      </c>
-      <c r="AZ26" s="30">
-        <f t="shared" si="6"/>
-        <v>33554432</v>
-      </c>
-      <c r="BA26" s="30">
-        <f t="shared" si="6"/>
-        <v>16777216</v>
-      </c>
-      <c r="BB26" s="30">
-        <f t="shared" si="6"/>
-        <v>8388608</v>
-      </c>
-      <c r="BC26" s="30">
-        <f t="shared" si="6"/>
-        <v>4194304</v>
-      </c>
-      <c r="BD26" s="30">
-        <f t="shared" si="6"/>
-        <v>2097152</v>
-      </c>
-      <c r="BE26" s="30">
-        <f t="shared" si="6"/>
-        <v>1048576</v>
-      </c>
-      <c r="BF26" s="30">
-        <f t="shared" si="6"/>
-        <v>524288</v>
-      </c>
-      <c r="BG26" s="30">
-        <f t="shared" si="6"/>
-        <v>262144</v>
-      </c>
-      <c r="BH26" s="30">
-        <f t="shared" si="6"/>
-        <v>131072</v>
-      </c>
-      <c r="BI26" s="62">
-        <f t="shared" si="6"/>
-        <v>65536</v>
-      </c>
-      <c r="BJ26" s="61">
-        <f t="shared" si="6"/>
-        <v>32768</v>
-      </c>
-      <c r="BK26" s="30">
-        <f t="shared" si="6"/>
-        <v>16384</v>
-      </c>
-      <c r="BL26" s="30">
-        <f t="shared" si="6"/>
-        <v>8192</v>
-      </c>
-      <c r="BM26" s="30">
-        <f t="shared" si="6"/>
-        <v>4096</v>
-      </c>
-      <c r="BN26" s="30">
-        <f t="shared" si="6"/>
-        <v>2048</v>
-      </c>
-      <c r="BO26" s="30">
-        <f t="shared" si="6"/>
-        <v>1024</v>
-      </c>
-      <c r="BP26" s="30">
-        <f t="shared" si="6"/>
-        <v>512</v>
-      </c>
-      <c r="BQ26" s="30">
-        <f t="shared" si="6"/>
-        <v>256</v>
-      </c>
-      <c r="BR26" s="30">
-        <f t="shared" si="6"/>
-        <v>128</v>
-      </c>
-      <c r="BS26" s="30">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="BT26" s="30">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="BU26" s="30">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="BV26" s="30">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="BW26" s="30">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="BX26" s="30">
-        <f>BY26*2</f>
-        <v>2</v>
-      </c>
-      <c r="BY26" s="62">
-        <v>1</v>
-      </c>
     </row>
-    <row r="27" spans="1:77" ht="47.25">
+    <row r="27" spans="1:34" ht="12.75">
       <c r="A27" s="42"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3751,193 +3073,65 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
+      <c r="AB27" s="26"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="37"/>
-      <c r="AT27" s="64" t="str">
-        <f t="shared" ref="AT27:BX27" si="7">TEXT(DEC2HEX(AT26),"00000000")</f>
-        <v>80000000</v>
-      </c>
-      <c r="AU27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>40000000</v>
-      </c>
-      <c r="AV27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>20000000</v>
-      </c>
-      <c r="AW27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
-      </c>
-      <c r="AX27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>08000000</v>
-      </c>
-      <c r="AY27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>04000000</v>
-      </c>
-      <c r="AZ27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>02000000</v>
-      </c>
-      <c r="BA27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>01000000</v>
-      </c>
-      <c r="BB27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00800000</v>
-      </c>
-      <c r="BC27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00400000</v>
-      </c>
-      <c r="BD27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00200000</v>
-      </c>
-      <c r="BE27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00100000</v>
-      </c>
-      <c r="BF27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00080000</v>
-      </c>
-      <c r="BG27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00040000</v>
-      </c>
-      <c r="BH27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00020000</v>
-      </c>
-      <c r="BI27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00010000</v>
-      </c>
-      <c r="BJ27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00008000</v>
-      </c>
-      <c r="BK27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00004000</v>
-      </c>
-      <c r="BL27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00002000</v>
-      </c>
-      <c r="BM27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00001000</v>
-      </c>
-      <c r="BN27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000800</v>
-      </c>
-      <c r="BO27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000400</v>
-      </c>
-      <c r="BP27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000200</v>
-      </c>
-      <c r="BQ27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000100</v>
-      </c>
-      <c r="BR27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000080</v>
-      </c>
-      <c r="BS27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000040</v>
-      </c>
-      <c r="BT27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000020</v>
-      </c>
-      <c r="BU27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000010</v>
-      </c>
-      <c r="BV27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000008</v>
-      </c>
-      <c r="BW27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000004</v>
-      </c>
-      <c r="BX27" s="64" t="str">
-        <f t="shared" si="7"/>
-        <v>00000002</v>
-      </c>
-      <c r="BY27" s="64" t="str">
-        <f>TEXT(DEC2HEX(BY26),"00000000")</f>
-        <v>00000001</v>
-      </c>
     </row>
-    <row r="28" spans="1:77" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="66">
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A28" s="58">
         <v>15</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="59">
         <v>14</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="58">
         <v>13</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="59">
         <v>12</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="58">
         <v>11</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="59">
         <v>10</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="58">
         <v>9</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="59">
         <v>8</v>
       </c>
-      <c r="I28" s="66">
+      <c r="I28" s="58">
         <v>7</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="59">
         <v>6</v>
       </c>
-      <c r="K28" s="66">
+      <c r="K28" s="58">
         <v>5</v>
       </c>
-      <c r="L28" s="67">
+      <c r="L28" s="59">
         <v>4</v>
       </c>
-      <c r="M28" s="66">
+      <c r="M28" s="58">
         <v>3</v>
       </c>
-      <c r="N28" s="67">
+      <c r="N28" s="59">
         <v>2</v>
       </c>
-      <c r="O28" s="66">
-        <v>1</v>
-      </c>
-      <c r="P28" s="67">
+      <c r="O28" s="58">
+        <v>1</v>
+      </c>
+      <c r="P28" s="59">
         <v>0</v>
       </c>
       <c r="Q28" s="26"/>
       <c r="R28" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
@@ -3948,19 +3142,15 @@
       <c r="Y28" s="23"/>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
+      <c r="AB28" s="24"/>
       <c r="AC28" s="23"/>
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="40"/>
       <c r="AH28" s="46"/>
-      <c r="AT28" s="61"/>
-      <c r="BI28" s="62"/>
-      <c r="BJ28" s="61"/>
-      <c r="BY28" s="62"/>
     </row>
-    <row r="29" spans="1:77" ht="13.5" customHeight="1" thickBot="1">
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" thickBot="1">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -4011,7 +3201,7 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S29" s="26"/>
       <c r="T29" s="26" t="s">
@@ -4031,12 +3221,8 @@
       <c r="AF29" s="24"/>
       <c r="AG29" s="40"/>
       <c r="AH29" s="46"/>
-      <c r="AT29" s="61"/>
-      <c r="BI29" s="62"/>
-      <c r="BJ29" s="61"/>
-      <c r="BY29" s="62"/>
     </row>
-    <row r="30" spans="1:77" ht="13.5" customHeight="1">
+    <row r="30" spans="1:34" ht="13.5" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="10"/>
       <c r="C30" s="13"/>
@@ -4064,19 +3250,15 @@
       <c r="Y30" s="23"/>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
+      <c r="AB30" s="24"/>
       <c r="AC30" s="23"/>
       <c r="AD30" s="23"/>
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="46"/>
-      <c r="AT30" s="61"/>
-      <c r="BI30" s="62"/>
-      <c r="BJ30" s="61"/>
-      <c r="BY30" s="62"/>
     </row>
-    <row r="31" spans="1:77" ht="13.5" customHeight="1">
+    <row r="31" spans="1:34" ht="13.5" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="10"/>
       <c r="C31" s="13"/>
@@ -4104,153 +3286,161 @@
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
+      <c r="AB31" s="24"/>
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="40"/>
       <c r="AH31" s="46"/>
-      <c r="AT31" s="16"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="13"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="13"/>
-      <c r="BH31" s="13"/>
-      <c r="BI31" s="8"/>
-      <c r="BJ31" s="16"/>
-      <c r="BK31" s="13"/>
-      <c r="BL31" s="13"/>
-      <c r="BM31" s="13"/>
-      <c r="BN31" s="13"/>
-      <c r="BO31" s="13"/>
-      <c r="BP31" s="13"/>
-      <c r="BQ31" s="13"/>
-      <c r="BR31" s="13"/>
-      <c r="BS31" s="13"/>
-      <c r="BT31" s="13"/>
-      <c r="BU31" s="13"/>
-      <c r="BV31" s="13"/>
-      <c r="BW31" s="13"/>
-      <c r="BX31" s="13"/>
-      <c r="BY31" s="8"/>
     </row>
-    <row r="32" spans="1:77" ht="13.5" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="10"/>
+    <row r="32" spans="1:34" ht="13.5" customHeight="1">
+      <c r="A32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
+      <c r="T32" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="U32" s="23"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
       <c r="AG32" s="40"/>
       <c r="AH32" s="46"/>
     </row>
-    <row r="33" spans="1:38" ht="13.5" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="N33" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="69" t="s">
-        <v>3</v>
+    <row r="33" spans="1:34" ht="13.5" customHeight="1">
+      <c r="A33" s="26">
+        <v>1</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0</v>
+      </c>
+      <c r="C33" s="26">
+        <v>1</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <v>1</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+      <c r="H33" s="26">
+        <v>1</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="26">
+        <v>1</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0</v>
+      </c>
+      <c r="L33" s="26">
+        <v>1</v>
+      </c>
+      <c r="M33" s="26">
+        <v>1</v>
+      </c>
+      <c r="N33" s="26">
+        <v>0</v>
+      </c>
+      <c r="O33" s="26">
+        <v>1</v>
+      </c>
+      <c r="P33" s="26">
+        <v>0</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="R33" s="1">
+        <f>(P33+(O33*2)+(N33*4)+(M33*8)+(L33*16)+(K33*32)+(J33*64)+(I33*128)+(H33*256)+(G33*512)+(F33*1024)+(E33*2048)+(D33*4096)+(C33*8192)+(B33*16384)+(A33*32768))</f>
+        <v>44378</v>
+      </c>
       <c r="S33" s="26"/>
-      <c r="T33" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
+      <c r="T33" s="26" t="str">
+        <f t="shared" ref="T33:T44" si="3">DEC2HEX(P33+(O33*2)+(N33*4)+(M33*8)+(L33*16)+(K33*32)+(J33*64)+(I33*128)+(H33*256)+(G33*512)+(F33*1024)+(E33*2048)+(D33*4096)+(C33*8192)+(B33*16384)+(A33*32768))</f>
+        <v>AD5A</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" s="24"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="46"/>
     </row>
-    <row r="34" spans="1:38" ht="13.5" customHeight="1">
+    <row r="34" spans="1:34" ht="13.5" customHeight="1">
       <c r="A34" s="26">
         <v>1</v>
       </c>
@@ -4261,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="26">
         <v>1</v>
@@ -4276,16 +3466,16 @@
         <v>1</v>
       </c>
       <c r="I34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="26">
         <v>1</v>
@@ -4297,20 +3487,20 @@
         <v>1</v>
       </c>
       <c r="P34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1">
-        <f>(P34+(O34*2)+(N34*4)+(M34*8)+(L34*16)+(K34*32)+(J34*64)+(I34*128)+(H34*256)+(G34*512)+(F34*1024)+(E34*2048)+(D34*4096)+(C34*8192)+(B34*16384)+(A34*32768))</f>
-        <v>44378</v>
+        <f t="shared" ref="R34:R44" si="4">(P34+(O34*2)+(N34*4)+(M34*8)+(L34*16)+(K34*32)+(J34*64)+(I34*128)+(H34*256)+(G34*512)+(F34*1024)+(E34*2048)+(D34*4096)+(C34*8192)+(B34*16384)+(A34*32768))</f>
+        <v>46507</v>
       </c>
       <c r="S34" s="26"/>
       <c r="T34" s="26" t="str">
-        <f t="shared" ref="T34:T45" si="8">DEC2HEX(P34+(O34*2)+(N34*4)+(M34*8)+(L34*16)+(K34*32)+(J34*64)+(I34*128)+(H34*256)+(G34*512)+(F34*1024)+(E34*2048)+(D34*4096)+(C34*8192)+(B34*16384)+(A34*32768))</f>
-        <v>AD5A</v>
+        <f t="shared" si="3"/>
+        <v>B5AB</v>
       </c>
       <c r="U34" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V34" s="24"/>
       <c r="W34" s="23"/>
@@ -4318,19 +3508,14 @@
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
+      <c r="AB34" s="24"/>
       <c r="AC34" s="23"/>
       <c r="AD34" s="23"/>
       <c r="AE34" s="23"/>
       <c r="AF34" s="23"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="46"/>
-      <c r="AL34" s="30">
-        <f t="shared" ref="AL34:AL45" si="9">L34+(K34*2)+(J34*4)+(I34*8)+(H34*16)+(G34*32)+(F34*64)+(E34*128)+(D34*256)+(C34*512)+(B34*1024)+(A34*2048)</f>
-        <v>2773</v>
-      </c>
+      <c r="AG34" s="37"/>
     </row>
-    <row r="35" spans="1:38" ht="13.5" customHeight="1">
+    <row r="35" spans="1:34" ht="13.5" customHeight="1">
       <c r="A35" s="26">
         <v>1</v>
       </c>
@@ -4338,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="26">
         <v>1</v>
@@ -4350,13 +3535,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="26">
         <v>1</v>
       </c>
       <c r="I35" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="26">
         <v>0</v>
@@ -4374,23 +3559,23 @@
         <v>0</v>
       </c>
       <c r="O35" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="26">
         <v>1</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1">
-        <f t="shared" ref="R35:R45" si="10">(P35+(O35*2)+(N35*4)+(M35*8)+(L35*16)+(K35*32)+(J35*64)+(I35*128)+(H35*256)+(G35*512)+(F35*1024)+(E35*2048)+(D35*4096)+(C35*8192)+(B35*16384)+(A35*32768))</f>
-        <v>46507</v>
+        <f t="shared" si="4"/>
+        <v>38697</v>
       </c>
       <c r="S35" s="26"/>
       <c r="T35" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>B5AB</v>
+        <f t="shared" si="3"/>
+        <v>9729</v>
       </c>
       <c r="U35" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V35" s="24"/>
       <c r="W35" s="23"/>
@@ -4398,18 +3583,14 @@
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
+      <c r="AB35" s="24"/>
       <c r="AC35" s="23"/>
       <c r="AD35" s="23"/>
       <c r="AE35" s="23"/>
       <c r="AF35" s="23"/>
       <c r="AG35" s="37"/>
-      <c r="AL35" s="30">
-        <f t="shared" si="9"/>
-        <v>2906</v>
-      </c>
     </row>
-    <row r="36" spans="1:38" ht="13.5" customHeight="1">
+    <row r="36" spans="1:34" ht="13.5" customHeight="1">
       <c r="A36" s="26">
         <v>1</v>
       </c>
@@ -4417,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="26">
         <v>1</v>
@@ -4432,19 +3613,19 @@
         <v>1</v>
       </c>
       <c r="H36" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="26">
         <v>1</v>
@@ -4453,23 +3634,23 @@
         <v>0</v>
       </c>
       <c r="O36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="26">
         <v>1</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1">
-        <f t="shared" si="10"/>
-        <v>38697</v>
+        <f t="shared" si="4"/>
+        <v>46811</v>
       </c>
       <c r="S36" s="26"/>
       <c r="T36" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>9729</v>
+        <f t="shared" si="3"/>
+        <v>B6DB</v>
       </c>
       <c r="U36" s="23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="V36" s="24"/>
       <c r="W36" s="23"/>
@@ -4477,18 +3658,14 @@
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
       <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
+      <c r="AB36" s="24"/>
       <c r="AC36" s="23"/>
       <c r="AD36" s="23"/>
       <c r="AE36" s="23"/>
       <c r="AF36" s="23"/>
       <c r="AG36" s="37"/>
-      <c r="AL36" s="30">
-        <f t="shared" si="9"/>
-        <v>2418</v>
-      </c>
     </row>
-    <row r="37" spans="1:38" ht="13.5" customHeight="1">
+    <row r="37" spans="1:34" ht="13.5" customHeight="1">
       <c r="A37" s="26">
         <v>1</v>
       </c>
@@ -4499,22 +3676,22 @@
         <v>1</v>
       </c>
       <c r="D37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="26">
         <v>1</v>
@@ -4523,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="26">
         <v>1</v>
@@ -4535,20 +3712,20 @@
         <v>1</v>
       </c>
       <c r="P37" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1">
-        <f t="shared" si="10"/>
-        <v>46811</v>
+        <f t="shared" si="4"/>
+        <v>43338</v>
       </c>
       <c r="S37" s="26"/>
       <c r="T37" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>B6DB</v>
+        <f t="shared" si="3"/>
+        <v>A94A</v>
       </c>
       <c r="U37" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V37" s="24"/>
       <c r="W37" s="23"/>
@@ -4556,18 +3733,14 @@
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
       <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
+      <c r="AB37" s="24"/>
       <c r="AC37" s="23"/>
       <c r="AD37" s="23"/>
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
       <c r="AG37" s="37"/>
-      <c r="AL37" s="30">
-        <f t="shared" si="9"/>
-        <v>2925</v>
-      </c>
     </row>
-    <row r="38" spans="1:38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:34" ht="13.5" customHeight="1">
       <c r="A38" s="26">
         <v>1</v>
       </c>
@@ -4587,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="26">
         <v>1</v>
@@ -4602,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="26">
         <v>1</v>
@@ -4618,16 +3791,16 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1">
-        <f t="shared" si="10"/>
-        <v>43338</v>
+        <f t="shared" si="4"/>
+        <v>43738</v>
       </c>
       <c r="S38" s="26"/>
       <c r="T38" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>A94A</v>
+        <f t="shared" si="3"/>
+        <v>AADA</v>
       </c>
       <c r="U38" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V38" s="24"/>
       <c r="W38" s="23"/>
@@ -4635,18 +3808,14 @@
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
       <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
+      <c r="AB38" s="24"/>
       <c r="AC38" s="23"/>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="37"/>
-      <c r="AL38" s="30">
-        <f t="shared" si="9"/>
-        <v>2708</v>
-      </c>
     </row>
-    <row r="39" spans="1:38" ht="13.5" customHeight="1">
+    <row r="39" spans="1:34" ht="13.5" customHeight="1">
       <c r="A39" s="26">
         <v>1</v>
       </c>
@@ -4657,22 +3826,22 @@
         <v>1</v>
       </c>
       <c r="D39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="26">
         <v>1</v>
@@ -4693,20 +3862,20 @@
         <v>1</v>
       </c>
       <c r="P39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1">
-        <f t="shared" si="10"/>
-        <v>43738</v>
+        <f t="shared" si="4"/>
+        <v>46427</v>
       </c>
       <c r="S39" s="26"/>
       <c r="T39" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>AADA</v>
+        <f t="shared" si="3"/>
+        <v>B55B</v>
       </c>
       <c r="U39" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V39" s="24"/>
       <c r="W39" s="23"/>
@@ -4714,32 +3883,28 @@
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
       <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
+      <c r="AB39" s="24"/>
       <c r="AC39" s="23"/>
       <c r="AD39" s="23"/>
       <c r="AE39" s="23"/>
       <c r="AF39" s="23"/>
       <c r="AG39" s="37"/>
-      <c r="AL39" s="30">
-        <f t="shared" si="9"/>
-        <v>2733</v>
-      </c>
     </row>
-    <row r="40" spans="1:38" ht="13.5" customHeight="1">
+    <row r="40" spans="1:34" ht="13.5" customHeight="1">
       <c r="A40" s="26">
         <v>1</v>
       </c>
       <c r="B40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="26">
         <v>1</v>
@@ -4751,41 +3916,41 @@
         <v>1</v>
       </c>
       <c r="I40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="26">
         <v>1</v>
       </c>
       <c r="N40" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1">
-        <f t="shared" si="10"/>
-        <v>46427</v>
+        <f t="shared" si="4"/>
+        <v>52652</v>
       </c>
       <c r="S40" s="26"/>
       <c r="T40" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>B55B</v>
+        <f t="shared" si="3"/>
+        <v>CDAC</v>
       </c>
       <c r="U40" s="23" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="V40" s="24"/>
       <c r="W40" s="23"/>
@@ -4793,32 +3958,28 @@
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
       <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
+      <c r="AB40" s="24"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
       <c r="AG40" s="37"/>
-      <c r="AL40" s="30">
-        <f t="shared" si="9"/>
-        <v>2901</v>
-      </c>
     </row>
-    <row r="41" spans="1:38" ht="13.5" customHeight="1">
+    <row r="41" spans="1:34" ht="13.5" customHeight="1">
       <c r="A41" s="26">
         <v>1</v>
       </c>
       <c r="B41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="26">
         <v>1</v>
@@ -4836,35 +3997,35 @@
         <v>0</v>
       </c>
       <c r="K41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="26">
         <v>1</v>
       </c>
       <c r="N41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1">
-        <f t="shared" si="10"/>
-        <v>52652</v>
+        <f t="shared" si="4"/>
+        <v>46491</v>
       </c>
       <c r="S41" s="26"/>
       <c r="T41" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>CDAC</v>
+        <f t="shared" si="3"/>
+        <v>B59B</v>
       </c>
       <c r="U41" s="23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="V41" s="24"/>
       <c r="W41" s="23"/>
@@ -4872,32 +4033,28 @@
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
       <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
+      <c r="AB41" s="24"/>
       <c r="AC41" s="23"/>
       <c r="AD41" s="23"/>
       <c r="AE41" s="23"/>
       <c r="AF41" s="23"/>
       <c r="AG41" s="37"/>
-      <c r="AL41" s="30">
-        <f t="shared" si="9"/>
-        <v>3290</v>
-      </c>
     </row>
-    <row r="42" spans="1:38" ht="13.5" customHeight="1">
+    <row r="42" spans="1:34" ht="13.5" customHeight="1">
       <c r="A42" s="26">
         <v>1</v>
       </c>
       <c r="B42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="26">
         <v>1</v>
       </c>
       <c r="E42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="26">
         <v>1</v>
@@ -4915,56 +4072,52 @@
         <v>0</v>
       </c>
       <c r="K42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="26">
         <v>1</v>
       </c>
       <c r="N42" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="26">
         <v>1</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1">
-        <f t="shared" si="10"/>
-        <v>46491</v>
+        <f t="shared" si="4"/>
+        <v>56749</v>
       </c>
       <c r="S42" s="26"/>
       <c r="T42" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>B59B</v>
-      </c>
-      <c r="U42" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="V42" s="24"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="23"/>
+        <f t="shared" si="3"/>
+        <v>DDAD</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" s="26"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="37"/>
-      <c r="AL42" s="30">
-        <f t="shared" si="9"/>
-        <v>2905</v>
-      </c>
     </row>
-    <row r="43" spans="1:38" ht="13.5" customHeight="1">
+    <row r="43" spans="1:34" ht="13.5" customHeight="1">
       <c r="A43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="26">
         <v>1</v>
@@ -4976,16 +4129,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="26">
         <v>1</v>
@@ -5000,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="26">
         <v>1</v>
@@ -5013,16 +4166,16 @@
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1">
-        <f t="shared" si="10"/>
-        <v>56749</v>
+        <f t="shared" si="4"/>
+        <v>21157</v>
       </c>
       <c r="S43" s="26"/>
       <c r="T43" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>DDAD</v>
+        <f t="shared" si="3"/>
+        <v>52A5</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="1"/>
@@ -5030,32 +4183,28 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
+      <c r="AB43" s="26"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="37"/>
-      <c r="AL43" s="30">
-        <f t="shared" si="9"/>
-        <v>3546</v>
-      </c>
     </row>
-    <row r="44" spans="1:38" ht="13.5" customHeight="1">
+    <row r="44" spans="1:34" ht="13.5" customHeight="1" thickBot="1">
       <c r="A44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="26">
         <v>0</v>
@@ -5079,136 +4228,49 @@
         <v>0</v>
       </c>
       <c r="M44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="43"/>
       <c r="R44" s="1">
-        <f t="shared" si="10"/>
-        <v>21157</v>
-      </c>
-      <c r="S44" s="26"/>
+        <f t="shared" si="4"/>
+        <v>43690</v>
+      </c>
+      <c r="S44" s="44"/>
       <c r="T44" s="26" t="str">
-        <f t="shared" si="8"/>
-        <v>52A5</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V44" s="26"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="37"/>
-      <c r="AL44" s="30">
-        <f t="shared" si="9"/>
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A45" s="26">
-        <v>1</v>
-      </c>
-      <c r="B45" s="26">
-        <v>0</v>
-      </c>
-      <c r="C45" s="26">
-        <v>1</v>
-      </c>
-      <c r="D45" s="26">
-        <v>0</v>
-      </c>
-      <c r="E45" s="26">
-        <v>1</v>
-      </c>
-      <c r="F45" s="26">
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
-        <v>1</v>
-      </c>
-      <c r="H45" s="26">
-        <v>0</v>
-      </c>
-      <c r="I45" s="26">
-        <v>1</v>
-      </c>
-      <c r="J45" s="26">
-        <v>0</v>
-      </c>
-      <c r="K45" s="26">
-        <v>1</v>
-      </c>
-      <c r="L45" s="26">
-        <v>0</v>
-      </c>
-      <c r="M45" s="26">
-        <v>1</v>
-      </c>
-      <c r="N45" s="26">
-        <v>0</v>
-      </c>
-      <c r="O45" s="26">
-        <v>1</v>
-      </c>
-      <c r="P45" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="1">
-        <f t="shared" si="10"/>
-        <v>43690</v>
-      </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>AAAA</v>
       </c>
-      <c r="U45" s="43" t="s">
+      <c r="U44" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="V45" s="44"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="43"/>
-      <c r="AG45" s="45"/>
-      <c r="AL45" s="46">
-        <f t="shared" si="9"/>
-        <v>2730</v>
-      </c>
+      <c r="V44" s="44"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="45"/>
     </row>
   </sheetData>
   <sortState ref="A9:Y25">
     <sortCondition ref="Y9:Y25"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="BJ17:BY17"/>
-    <mergeCell ref="AT18:BY18"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A9:P25 A34:P45">
+  <conditionalFormatting sqref="A33:P44 A9:P25">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
